--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="231">
   <si>
     <t>Topic</t>
   </si>
@@ -592,16 +592,6 @@
     <t>rest with camel</t>
   </si>
   <si>
-    <t>public void addUserTest() {
-  RestTemplate restTemplate = new RestTemplate();
-  User user = new User("testName", "testAge", "testCity");
-  UserRequest request = new UserRequest();  request.setUser(user);
-String result = restTemplate.postForObject("http://localhost:9091/RestSpringCXFHelloWorld2/services/rest/UserManager/addNewUser", request,
-          String.class);
-  System.out.println(result);
- }</t>
-  </si>
-  <si>
     <t>public void getUsersTest() {
   RestTemplate restTemplate = new RestTemplate();
 String result = restTemplate.getForObject("http://localhost:9091/RestSpringCXFHelloWorld2/services/rest/UserManager/fetchAllUsers", String.class);
@@ -619,10 +609,6 @@
   @POST  @Path("/addNewUser") public abstract UserResponse addUser(UserRequest userRequest);</t>
   </si>
   <si>
-    <t>How to make REST call from standalone program
-Using: org.springframework.web.client.RestTemplate</t>
-  </si>
-  <si>
     <t>Refer images\h_REST_WebServices\2_REST_CXF_HelloWorld.docx</t>
   </si>
   <si>
@@ -634,68 +620,6 @@
   </si>
   <si>
     <t>Tools to test REST web services</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Go to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://jersey.java.net/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Scroll down -&gt; we can see Download section -&gt; from there we can navigate to download jars but it is good to use maven dependency
-3. create jersey implemented web project with following maven command: change </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>artifactId, groupId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> based on requirement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C:\Users\Admin\Desktop\Test&gt;mvn archetype:generate -DarchetypeArtifactId=jersey-quickstart-webapp 
--DarchetypeGroupId=org.glassfish.jersey.archetypes -DinteractiveMode=false -DgroupId=com.example -DartifactId=simple-service-webapp 
--Dpackage=com.example -DarchetypeVersion=2.22.2</t>
-    </r>
   </si>
   <si>
     <t>Setting JAXRS development environment with Jersey implementation</t>
@@ -842,10 +766,6 @@
     <t>Sample URI to retrieve messages of year 2016</t>
   </si>
   <si>
-    <t>Ex: /messages?offset=30&amp;limit=10
-returns messages starting from id = 20 and returns next 10 messages</t>
-  </si>
-  <si>
     <t>By using collection resource URIs we will get lot of data. But user does not need all data so there should be filtering option and pagination options. This can be done by query parameters</t>
   </si>
   <si>
@@ -911,11 +831,6 @@
     <t>How to specify the data format exchanged back and forth</t>
   </si>
   <si>
-    <t>success == 200
-Error == 500
-Not Found == 404</t>
-  </si>
-  <si>
     <t>HTTP Status codes</t>
   </si>
   <si>
@@ -1049,10 +964,6 @@
     <t>HTTP</t>
   </si>
   <si>
-    <t>REST uses many concepts of HTTP. Roy Fielding coined REST. He is one of the authors of HTTP specification. REST will use ideas and concepts behind 
-HTTP</t>
-  </si>
-  <si>
     <t>Note on REST</t>
   </si>
   <si>
@@ -1100,9 +1011,6 @@
     <t>Contains 2 important parts</t>
   </si>
   <si>
-    <t xml:space="preserve">Jersey - RESTful web services implementation </t>
-  </si>
-  <si>
     <t>Spring REST</t>
   </si>
   <si>
@@ -1116,6 +1024,173 @@
   </si>
   <si>
     <t>REST + Apache CXF + Spring</t>
+  </si>
+  <si>
+    <t>REST uses many concepts of HTTP. Roy Fielding coined REST. He is one of the authors of HTTP specification. REST will use ideas and concepts behind HTTP</t>
+  </si>
+  <si>
+    <t>success == 200
+Error == 500 - Server Error
+Not Found == 404 - Page not found</t>
+  </si>
+  <si>
+    <t>Ex: /messages?offset=20&amp;limit=10
+returns messages starting from id = 20 and returns next 10 messages</t>
+  </si>
+  <si>
+    <t>Jersey implementation</t>
+  </si>
+  <si>
+    <t>RESTEasy implementation</t>
+  </si>
+  <si>
+    <t>RESTLet implementation</t>
+  </si>
+  <si>
+    <t>Apache CXF implementation</t>
+  </si>
+  <si>
+    <t>Apache Wink implementation</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How to make REST call from standalone program
+Using: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.springframework.web.client.RestTemplate</t>
+    </r>
+  </si>
+  <si>
+    <t>public void addUserTest() {
+  RestTemplate restTemplate = new RestTemplate();
+  User user = new User("testName", "testAge", "testCity");
+  UserRequest request = new UserRequest();  
+  request.setUser(user);
+String result = restTemplate.postForObject("http://localhost:9091/RestSpringCXFHelloWorld2/services/rest/UserManager/addNewUser", request, String.class);
+  System.out.println(result);
+ }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://jersey.java.net/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Scroll down -&gt; we can see Download section -&gt; from there we can navigate to download jars but it is good to use maven dependency
+3. create jersey implemented web project with following maven command: change </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>artifactId, groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on requirement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\Admin\Desktop\Test&gt;mvn archetype:generate -DarchetypeArtifactId=jersey-quickstart-webapp 
+-DarchetypeGroupId=org.glassfish.jersey.archetypes -DinteractiveMode=false -DgroupId=com.example -DartifactId=simple-service-webapp -Dpackage=com.example -DarchetypeVersion=2.22.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use nouns as REST urls. Don’t use verbs as REST urls. For example if we want to get definitions, add definitions then use url as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/definitions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET and POST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on operation. Following are service urls:
+@GET @Path("/definitions") public List&lt;Definition&gt; getDefinitions() { -------- }
+@POST @Path("/definitions") public void addDefinition(Definition definition) { ----------- }</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1282,7 +1357,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1296,12 +1371,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1322,20 +1391,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1632,11 +1710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1647,13 +1725,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1661,7 +1739,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1669,28 +1747,48 @@
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="8" t="s">
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1722,18 +1820,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
@@ -1760,10 +1858,10 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
@@ -2163,8 +2261,8 @@
   <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2174,39 +2272,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2219,390 +2317,390 @@
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45">
+    <row r="15" spans="1:2" ht="30">
       <c r="A15" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="19" t="s">
-        <v>189</v>
+      <c r="A23" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="18" t="s">
-        <v>186</v>
+      <c r="A25" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="17" t="s">
-        <v>184</v>
+      <c r="A26" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
       <c r="A33" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
       <c r="A46" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
       <c r="A47" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="16" t="s">
-        <v>138</v>
+      <c r="A49" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="16"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
       <c r="A52" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75">
       <c r="A57" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2610,7 +2708,7 @@
         <v>33</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2618,89 +2716,88 @@
         <v>31</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="16"/>
-    </row>
-    <row r="63" spans="1:2" ht="120">
+      <c r="A62" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="19"/>
+    </row>
+    <row r="63" spans="1:2" ht="105">
       <c r="A63" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="15" t="s">
-        <v>108</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="17"/>
       <c r="B66" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="15"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="105">
+      <c r="A67" s="17"/>
       <c r="B67" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="15"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="165">
+      <c r="A68" s="17"/>
       <c r="B68" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="165">
-      <c r="A69" s="15"/>
-      <c r="B69" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="47.25" customHeight="1">
+      <c r="A69" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A66:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="REST!A2" display="Up"/>
@@ -2708,6 +2805,7 @@
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2727,24 +2825,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2763,11 +2861,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2777,30 +2875,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!B24" display="Topics"/>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -1403,6 +1403,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,9 +1414,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2261,8 +2261,8 @@
   <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2428,7 +2428,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>184</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2436,7 +2436,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="1" t="s">
         <v>182</v>
       </c>
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="20" t="s">
         <v>135</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="3" t="s">
         <v>133</v>
       </c>
@@ -2736,10 +2736,10 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
     </row>
     <row r="63" spans="1:2" ht="105">
       <c r="A63" s="3" t="s">
@@ -2758,7 +2758,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="18" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2766,28 +2766,28 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="17"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="17"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="165">
-      <c r="A68" s="17"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="REST" sheetId="3" r:id="rId3"/>
     <sheet name="REST+Camel" sheetId="4" r:id="rId4"/>
     <sheet name="CXF+Spring" sheetId="5" r:id="rId5"/>
+    <sheet name="REST+Jersey" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="235">
   <si>
     <t>Topic</t>
   </si>
@@ -1191,6 +1192,29 @@
 @GET @Path("/definitions") public List&lt;Definition&gt; getDefinitions() { -------- }
 @POST @Path("/definitions") public void addDefinition(Definition definition) { ----------- }</t>
     </r>
+  </si>
+  <si>
+    <t>1. how to declare variable in path
+2. how to get variable as method argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @GET
+ @Produces(MediaType.APPLICATION_XML)
+ @Path(value = "/{messageId}")
+ public Message getMessage(@PathParam("messageId") long messageId) {
+  System.out.println("getMessage(): messageId" + messageId);
+  return messageService.getMessages().get(new Integer(messageId + ""));
+ }</t>
+  </si>
+  <si>
+    <t>classes above</t>
+  </si>
+  <si>
+    <t>import javax.ws.rs.GET;
+import javax.ws.rs.Produces;
+import javax.ws.rs.core.MediaType;
+import javax.ws.rs.Path;
+import javax.ws.rs.PathParam;</t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1737,8 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1752,7 +1776,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -1798,6 +1822,7 @@
     <hyperlink ref="B20" location="REST!A1" display="REST Definitions"/>
     <hyperlink ref="B23" location="'REST+Camel'!A1" display="REST With Camel"/>
     <hyperlink ref="B24" location="'CXF+Spring'!A1" display="REST + Apache CXF + Spring"/>
+    <hyperlink ref="B21" location="'REST+Jersey'!A1" display="Jersey implementation"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2260,9 +2285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2865,7 +2890,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2922,4 +2947,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67.85546875" customWidth="1"/>
+    <col min="2" max="2" width="117.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2" ht="105">
+      <c r="A6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'REST+Jersey'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!B21" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1736,9 +1736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2953,9 +2953,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="REST+Camel" sheetId="4" r:id="rId4"/>
     <sheet name="CXF+Spring" sheetId="5" r:id="rId5"/>
     <sheet name="REST+Jersey" sheetId="6" r:id="rId6"/>
+    <sheet name="Camel + REST" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="238">
   <si>
     <t>Topic</t>
   </si>
@@ -1215,6 +1216,15 @@
 import javax.ws.rs.core.MediaType;
 import javax.ws.rs.Path;
 import javax.ws.rs.PathParam;</t>
+  </si>
+  <si>
+    <t>Camel + Rest</t>
+  </si>
+  <si>
+    <t>Camel + Rest implementation</t>
+  </si>
+  <si>
+    <t>refer images\t_apache_camel\8_Camel_Rest_Example.docx</t>
   </si>
 </sst>
 </file>
@@ -1734,11 +1744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1813,6 +1823,11 @@
     <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2955,7 +2970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3011,4 +3026,53 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="118.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'Camel + REST'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!B29" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="240">
   <si>
     <t>Topic</t>
   </si>
@@ -1225,6 +1225,12 @@
   </si>
   <si>
     <t>refer images\t_apache_camel\8_Camel_Rest_Example.docx</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/CamelRest</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1383,6 +1389,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1391,7 +1406,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1449,6 +1464,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3030,11 +3047,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3065,13 +3082,28 @@
         <v>237</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'Camel + REST'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B29" display="Topics"/>
+    <hyperlink ref="A7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="244">
   <si>
     <t>Topic</t>
   </si>
@@ -1231,6 +1231,18 @@
   </si>
   <si>
     <t>https://github.com/avinashbabudonthu/CamelRest</t>
+  </si>
+  <si>
+    <t>Camel with REST</t>
+  </si>
+  <si>
+    <t>https://www.javacodegeeks.com/2013/03/rest-with-apache-camel.html</t>
+  </si>
+  <si>
+    <t>SOAP introduction</t>
+  </si>
+  <si>
+    <t>http://javapapers.com/web-service/soap-web-service-introduction/</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1418,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1446,6 +1458,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1464,8 +1479,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1865,9 +1880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1885,14 +1900,18 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3"/>
@@ -1915,10 +1934,10 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
@@ -2308,6 +2327,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="SOAP!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B2" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2337,10 +2357,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2351,10 +2371,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
@@ -2485,7 +2505,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2493,7 +2513,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="1" t="s">
         <v>182</v>
       </c>
@@ -2691,7 +2711,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2699,7 +2719,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="3" t="s">
         <v>133</v>
       </c>
@@ -2793,10 +2813,10 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:2" ht="105">
       <c r="A63" s="3" t="s">
@@ -2815,7 +2835,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2823,28 +2843,28 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="18"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="165">
-      <c r="A68" s="18"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B69" s="17"/>
+      <c r="B69" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2890,10 +2910,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2940,10 +2960,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2954,10 +2974,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -3005,16 +3025,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" s="3" t="s">
@@ -3049,9 +3069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3069,10 +3089,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -3082,17 +3102,25 @@
         <v>237</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3104,6 +3132,7 @@
     <hyperlink ref="B1" location="'Camel + REST'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B29" display="Topics"/>
     <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,28 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="SOAP" sheetId="2" r:id="rId2"/>
     <sheet name="REST" sheetId="3" r:id="rId3"/>
-    <sheet name="REST+Camel" sheetId="4" r:id="rId4"/>
-    <sheet name="CXF+Spring" sheetId="5" r:id="rId5"/>
-    <sheet name="REST+Jersey" sheetId="6" r:id="rId6"/>
-    <sheet name="Camel + REST" sheetId="8" r:id="rId7"/>
+    <sheet name="CXF+Spring" sheetId="5" r:id="rId4"/>
+    <sheet name="REST+Jersey" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="236">
   <si>
     <t>Topic</t>
-  </si>
-  <si>
-    <t>SubTopic</t>
   </si>
   <si>
     <t>Up</t>
@@ -586,12 +581,6 @@
   </si>
   <si>
     <t>Rest + Apache CXF + Spring</t>
-  </si>
-  <si>
-    <t>http://www.mastertheintegration.com/camel/camel-and-web-services/exposing-rest-services-with-camel.html#</t>
-  </si>
-  <si>
-    <t>rest with camel</t>
   </si>
   <si>
     <t>public void getUsersTest() {
@@ -1221,28 +1210,66 @@
     <t>Camel + Rest</t>
   </si>
   <si>
-    <t>Camel + Rest implementation</t>
-  </si>
-  <si>
-    <t>refer images\t_apache_camel\8_Camel_Rest_Example.docx</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/CamelRest</t>
-  </si>
-  <si>
-    <t>Camel with REST</t>
-  </si>
-  <si>
-    <t>https://www.javacodegeeks.com/2013/03/rest-with-apache-camel.html</t>
-  </si>
-  <si>
     <t>SOAP introduction</t>
   </si>
   <si>
     <t>http://javapapers.com/web-service/soap-web-service-introduction/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Camel Rest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images/Definitions/h_Definitions_Camel.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1326,7 +1353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,6 +1375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,7 +1451,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1443,13 +1476,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1479,8 +1506,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1776,100 +1804,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.5703125" customWidth="1"/>
-    <col min="2" max="2" width="85.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="117.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" t="s">
-        <v>235</v>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="SOAP!A1" display="SOAP Definitions"/>
-    <hyperlink ref="C1" location="Topics!A2" display="Up"/>
-    <hyperlink ref="B20" location="REST!A1" display="REST Definitions"/>
-    <hyperlink ref="B23" location="'REST+Camel'!A1" display="REST With Camel"/>
-    <hyperlink ref="B24" location="'CXF+Spring'!A1" display="REST + Apache CXF + Spring"/>
-    <hyperlink ref="B21" location="'REST+Jersey'!A1" display="Jersey implementation"/>
+    <hyperlink ref="A3" location="SOAP!A1" display="SOAP Definitions"/>
+    <hyperlink ref="B1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="A7" location="REST!A1" display="REST Definitions"/>
+    <hyperlink ref="A11" location="'CXF+Spring'!A1" display="REST + Apache CXF + Spring"/>
+    <hyperlink ref="A8" location="'REST+Jersey'!A1" display="Jersey implementation"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1880,9 +1916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1893,24 +1929,24 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1934,389 +1970,389 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="17"/>
+      <c r="A9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="120">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
       <c r="A52" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75">
       <c r="A54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:B69"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2350,521 +2386,521 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="20" t="s">
-        <v>184</v>
+      <c r="A23" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="20"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="14" t="s">
-        <v>181</v>
+      <c r="A25" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
-        <v>179</v>
+      <c r="A26" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
       <c r="A33" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
       <c r="A38" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="21" t="s">
-        <v>135</v>
+      <c r="A49" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="21"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
       <c r="A52" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75">
       <c r="A57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="21"/>
+      <c r="A62" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="19"/>
     </row>
     <row r="63" spans="1:2" ht="105">
       <c r="A63" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="17"/>
+      <c r="B66" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="105">
+      <c r="A67" s="17"/>
+      <c r="B67" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="165">
+      <c r="A68" s="17"/>
+      <c r="B68" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="47.25" customHeight="1">
+      <c r="A69" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="19"/>
-      <c r="B66" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="19"/>
-      <c r="B67" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="165">
-      <c r="A68" s="19"/>
-      <c r="B68" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A69" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2878,7 +2914,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="REST!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!B20" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A21" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2888,61 +2924,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="125.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!B23" display="Topics"/>
-    <hyperlink ref="B1" location="'REST+Camel'!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2953,38 +2939,38 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2993,7 +2979,7 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Topics!B24" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A25" display="Topics"/>
     <hyperlink ref="B1" location="'CXF+Spring'!A2" display="Up"/>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
@@ -3001,13 +2987,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3018,38 +3004,38 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3059,80 +3045,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'REST+Jersey'!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!B21" display="Topics"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="67.28515625" customWidth="1"/>
-    <col min="2" max="2" width="118.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="'Camel + REST'!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!B29" display="Topics"/>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="238">
   <si>
     <t>Topic</t>
   </si>
@@ -1270,6 +1270,12 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Restful client with Apache HttpClient</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/webservices/jax-rs/restful-java-client-with-apache-httpclient/</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1457,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1488,6 +1494,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,8 +1515,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1806,9 +1815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1826,10 +1835,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1837,10 +1846,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
@@ -1936,10 +1945,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -1970,10 +1979,10 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
@@ -2371,11 +2380,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2393,10 +2402,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2407,10 +2416,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
@@ -2541,7 +2550,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2549,7 +2558,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="1" t="s">
         <v>179</v>
       </c>
@@ -2747,7 +2756,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="20" t="s">
         <v>132</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2755,7 +2764,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="3" t="s">
         <v>130</v>
       </c>
@@ -2849,10 +2858,10 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
     </row>
     <row r="63" spans="1:2" ht="105">
       <c r="A63" s="3" t="s">
@@ -2871,7 +2880,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="18" t="s">
         <v>224</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2879,28 +2888,36 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="17"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="17"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="165">
-      <c r="A68" s="17"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B69" s="16"/>
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2916,9 +2933,10 @@
     <hyperlink ref="B1" location="REST!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A21" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B70" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2946,10 +2964,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2960,10 +2978,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -3011,16 +3029,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" s="3" t="s">

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="245">
   <si>
     <t>Topic</t>
   </si>
@@ -1207,9 +1207,6 @@
 import javax.ws.rs.PathParam;</t>
   </si>
   <si>
-    <t>Camel + Rest</t>
-  </si>
-  <si>
     <t>SOAP introduction</t>
   </si>
   <si>
@@ -1276,6 +1273,30 @@
   </si>
   <si>
     <t>https://www.mkyong.com/webservices/jax-rs/restful-java-client-with-apache-httpclient/</t>
+  </si>
+  <si>
+    <t>cURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache HttpClient </t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/java/apache-httpclient-examples/</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/webservices/jax-rs/restfull-java-client-with-java-net-url/</t>
+  </si>
+  <si>
+    <t>RESTful Java client with java.net.URL</t>
+  </si>
+  <si>
+    <t>PostMan</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>SOAP UI</t>
   </si>
 </sst>
 </file>
@@ -1494,6 +1515,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1514,9 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1813,17 +1834,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" customWidth="1"/>
-    <col min="2" max="2" width="117.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="109.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1835,10 +1856,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1846,10 +1867,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
@@ -1871,7 +1892,7 @@
         <v>213</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1901,7 +1922,38 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1915,9 +1967,11 @@
     <hyperlink ref="A7" location="REST!A1" display="REST Definitions"/>
     <hyperlink ref="A11" location="'CXF+Spring'!A1" display="REST + Apache CXF + Spring"/>
     <hyperlink ref="A8" location="'REST+Jersey'!A1" display="Jersey implementation"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1932,8 +1986,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
-    <col min="2" max="2" width="119.85546875" customWidth="1"/>
+    <col min="1" max="1" width="63.75" customWidth="1"/>
+    <col min="2" max="2" width="119.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1945,17 +1999,17 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1979,10 +2033,10 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
@@ -2028,7 +2082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75">
+    <row r="16" spans="1:2" ht="60">
       <c r="A16" s="3" t="s">
         <v>84</v>
       </c>
@@ -2044,7 +2098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="120">
+    <row r="18" spans="1:2" ht="90">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -2100,7 +2154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="60">
+    <row r="25" spans="1:2" ht="45">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2382,15 +2436,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="2" width="122.42578125" customWidth="1"/>
+    <col min="1" max="1" width="63.375" customWidth="1"/>
+    <col min="2" max="2" width="122.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2402,10 +2456,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2416,10 +2470,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
@@ -2485,7 +2539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>196</v>
       </c>
@@ -2550,7 +2604,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>181</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2558,7 +2612,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="1" t="s">
         <v>179</v>
       </c>
@@ -2731,7 +2785,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30">
+    <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
         <v>138</v>
       </c>
@@ -2755,8 +2809,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="20" t="s">
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2764,7 +2818,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="3" t="s">
         <v>130</v>
       </c>
@@ -2777,7 +2831,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="45">
+    <row r="52" spans="1:2" ht="30">
       <c r="A52" s="3" t="s">
         <v>127</v>
       </c>
@@ -2858,12 +2912,12 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="20"/>
-    </row>
-    <row r="63" spans="1:2" ht="105">
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="1:2" ht="90">
       <c r="A63" s="3" t="s">
         <v>108</v>
       </c>
@@ -2880,7 +2934,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>224</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2888,35 +2942,35 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="18"/>
+    <row r="67" spans="1:2" ht="75">
+      <c r="A67" s="19"/>
       <c r="B67" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="165">
-      <c r="A68" s="18"/>
+    <row r="68" spans="1:2" ht="150">
+      <c r="A68" s="19"/>
       <c r="B68" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B69" s="17"/>
+      <c r="B69" s="18"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +3006,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="126.28515625" customWidth="1"/>
+    <col min="2" max="2" width="126.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2964,10 +3018,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2978,10 +3032,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -3016,8 +3070,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" customWidth="1"/>
-    <col min="2" max="2" width="117.28515625" customWidth="1"/>
+    <col min="1" max="1" width="67.875" customWidth="1"/>
+    <col min="2" max="2" width="117.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3029,16 +3083,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" s="3" t="s">

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1836,9 +1836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1979,15 +1979,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.75" customWidth="1"/>
-    <col min="2" max="2" width="119.875" customWidth="1"/>
+    <col min="1" max="1" width="54.625" customWidth="1"/>
+    <col min="2" max="2" width="108.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -8,25 +8,24 @@
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="SOAP" sheetId="2" r:id="rId2"/>
-    <sheet name="REST" sheetId="3" r:id="rId3"/>
-    <sheet name="CXF+Spring" sheetId="5" r:id="rId4"/>
-    <sheet name="REST+Jersey" sheetId="6" r:id="rId5"/>
+    <sheet name="Materials" sheetId="7" r:id="rId2"/>
+    <sheet name="SOAP" sheetId="2" r:id="rId3"/>
+    <sheet name="REST" sheetId="3" r:id="rId4"/>
+    <sheet name="CXF+Spring" sheetId="5" r:id="rId5"/>
+    <sheet name="REST+Jersey" sheetId="6" r:id="rId6"/>
+    <sheet name="wsimport" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="254">
   <si>
     <t>Topic</t>
   </si>
   <si>
     <t>Up</t>
-  </si>
-  <si>
-    <t>Soap Web Services</t>
   </si>
   <si>
     <t>REST Web Services</t>
@@ -574,9 +573,6 @@
     <t>REST Definitions</t>
   </si>
   <si>
-    <t>Material Links</t>
-  </si>
-  <si>
     <t>http://www.dreamsyssoft.com/blog/blog.php?/archives/7-Simple-REST-Web-Service-in-Java-with-Spring-and-CXF.html</t>
   </si>
   <si>
@@ -1009,9 +1005,6 @@
   </si>
   <si>
     <t>http://www.tutorialspoint.com/restful/index.htm</t>
-  </si>
-  <si>
-    <t>REST With Camel</t>
   </si>
   <si>
     <t>REST + Apache CXF + Spring</t>
@@ -1213,8 +1206,50 @@
     <t>http://javapapers.com/web-service/soap-web-service-introduction/</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Refer </t>
+    <t>Restful client with Apache HttpClient</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/webservices/jax-rs/restful-java-client-with-apache-httpclient/</t>
+  </si>
+  <si>
+    <t>cURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache HttpClient </t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/java/apache-httpclient-examples/</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/webservices/jax-rs/restfull-java-client-with-java-net-url/</t>
+  </si>
+  <si>
+    <t>RESTful Java client with java.net.URL</t>
+  </si>
+  <si>
+    <t>PostMan</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>SOAP UI</t>
+  </si>
+  <si>
+    <t>SOAP Web Services</t>
+  </si>
+  <si>
+    <t>RESTful Web Services</t>
+  </si>
+  <si>
+    <t>wsimport</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REST With Camel - </t>
     </r>
     <r>
       <rPr>
@@ -1225,85 +1260,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Camel Rest </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>images/Definitions/h_Definitions_Camel.xlsx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Restful client with Apache HttpClient</t>
-  </si>
-  <si>
-    <t>https://www.mkyong.com/webservices/jax-rs/restful-java-client-with-apache-httpclient/</t>
-  </si>
-  <si>
-    <t>cURL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache HttpClient </t>
-  </si>
-  <si>
-    <t>https://www.mkyong.com/java/apache-httpclient-examples/</t>
-  </si>
-  <si>
-    <t>https://www.mkyong.com/webservices/jax-rs/restfull-java-client-with-java-net-url/</t>
-  </si>
-  <si>
-    <t>RESTful Java client with java.net.URL</t>
-  </si>
-  <si>
-    <t>PostMan</t>
-  </si>
-  <si>
-    <t>ARC</t>
-  </si>
-  <si>
-    <t>SOAP UI</t>
+      <t>Refer Camel Rest tab in images/Definitions/h_Definitions_Camel.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>https://jax-ws.java.net/2.2.6-2/docs/ch04.html</t>
+  </si>
+  <si>
+    <t>Sun material link</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>Apache CXF + Spring</t>
+  </si>
+  <si>
+    <t>Projetcs</t>
+  </si>
+  <si>
+    <t>Rest Clients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1379,8 +1368,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1408,6 +1405,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,7 +1487,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1520,6 +1529,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1834,7 +1852,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="109.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="REST!A1" display="REST Definitions"/>
+    <hyperlink ref="B7" location="'CXF+Spring'!A1" display="REST + Apache CXF + Spring"/>
+    <hyperlink ref="B4" location="'REST+Jersey'!A1" display="Jersey implementation"/>
+    <hyperlink ref="A3" location="SOAP!A1" display="SOAP Definitions"/>
+    <hyperlink ref="C1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="B1" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="A4" location="wsimport!A1" display="wsimport"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="123.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Materials!A2" display="Up"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="B18" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1843,174 +2104,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.625" customWidth="1"/>
-    <col min="2" max="2" width="109.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" location="SOAP!A1" display="SOAP Definitions"/>
-    <hyperlink ref="B1" location="Topics!A2" display="Up"/>
-    <hyperlink ref="A7" location="REST!A1" display="REST Definitions"/>
-    <hyperlink ref="A11" location="'CXF+Spring'!A1" display="REST + Apache CXF + Spring"/>
-    <hyperlink ref="A8" location="'REST+Jersey'!A1" display="Jersey implementation"/>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="54.625" customWidth="1"/>
-    <col min="2" max="2" width="108.25" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="131.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>233</v>
-      </c>
+      <c r="A2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="20"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3"/>
@@ -2033,389 +2143,389 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="17"/>
+      <c r="A9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="90">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="105">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
       <c r="A43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
       <c r="A48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="A49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75">
       <c r="A54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2425,552 +2535,543 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="SOAP!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!B2" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.375" customWidth="1"/>
-    <col min="2" max="2" width="122.375" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="122.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>212</v>
-      </c>
+      <c r="A2" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="20"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
       <c r="A15" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="20" t="s">
-        <v>181</v>
+      <c r="A23" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="20"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
       <c r="A33" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="60">
+      <c r="A49" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="21"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75">
       <c r="A57" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" spans="1:2" ht="90">
+      <c r="A62" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="24"/>
+    </row>
+    <row r="63" spans="1:2" ht="105">
       <c r="A63" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="22"/>
+      <c r="B66" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="105">
+      <c r="A67" s="22"/>
+      <c r="B67" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="165">
+      <c r="A68" s="22"/>
+      <c r="B68" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="47.25" customHeight="1">
+      <c r="A69" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="19"/>
-      <c r="B66" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="75">
-      <c r="A67" s="19"/>
-      <c r="B67" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="150">
-      <c r="A68" s="19"/>
-      <c r="B68" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A69" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="21"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2985,18 +3086,137 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="REST!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A21" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B70" r:id="rId2"/>
+    <hyperlink ref="A1" location="Topics!B3" display="Topics"/>
+    <hyperlink ref="B70" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="126.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!B7" display="Topics"/>
+    <hyperlink ref="B1" location="'CXF+Spring'!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67.85546875" customWidth="1"/>
+    <col min="2" max="2" width="117.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:2" ht="105">
+      <c r="A6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'REST+Jersey'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!B4" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3005,119 +3225,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="126.25" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A25" display="Topics"/>
-    <hyperlink ref="B1" location="'CXF+Spring'!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="67.875" customWidth="1"/>
-    <col min="2" max="2" width="117.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:2" ht="105">
-      <c r="A6" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75">
-      <c r="A7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="'REST+Jersey'!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B1" location="wsimport!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="256">
   <si>
     <t>Topic</t>
   </si>
@@ -1286,6 +1286,12 @@
   </si>
   <si>
     <t>Rest Clients</t>
+  </si>
+  <si>
+    <t>Pluralsigh link</t>
+  </si>
+  <si>
+    <t>Five essential tools for building REST API</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:B17"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2041,6 +2047,14 @@
       </c>
       <c r="B11" s="6" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:2">

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="258">
   <si>
     <t>Topic</t>
   </si>
@@ -1292,6 +1292,12 @@
   </si>
   <si>
     <t>Five essential tools for building REST API</t>
+  </si>
+  <si>
+    <t>https://curl.haxx.se/docs/faq.html</t>
+  </si>
+  <si>
+    <t>cURL complete reference</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1868,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1978,11 +1984,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:B13"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2085,8 +2091,23 @@
         <v>246</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A13:B13"/>
@@ -2102,6 +2123,7 @@
     <hyperlink ref="B11" r:id="rId4"/>
     <hyperlink ref="B14" r:id="rId5"/>
     <hyperlink ref="B18" r:id="rId6"/>
+    <hyperlink ref="B22" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="CXF+Spring" sheetId="5" r:id="rId5"/>
     <sheet name="REST+Jersey" sheetId="6" r:id="rId6"/>
     <sheet name="wsimport" sheetId="8" r:id="rId7"/>
+    <sheet name="SpringREST" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="260">
   <si>
     <t>Topic</t>
   </si>
@@ -1298,6 +1299,12 @@
   </si>
   <si>
     <t>cURL complete reference</t>
+  </si>
+  <si>
+    <t>Github link</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/SpringRest.git</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1913,7 +1920,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1976,6 +1983,7 @@
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
     <hyperlink ref="B1" location="Materials!A1" display="Materials"/>
     <hyperlink ref="A4" location="wsimport!A1" display="wsimport"/>
+    <hyperlink ref="B5" location="SpringREST!A1" display="Spring REST"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1986,9 +1994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2107,12 +2115,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -3192,7 +3200,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3256,7 +3264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3280,4 +3288,61 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63" customWidth="1"/>
+    <col min="2" max="2" width="124.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!B5" display="Topics"/>
+    <hyperlink ref="B1" location="SpringREST!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="274">
   <si>
     <t>Topic</t>
   </si>
@@ -1305,6 +1305,71 @@
   </si>
   <si>
     <t>https://github.com/avinashbabudonthu/SpringRest.git</t>
+  </si>
+  <si>
+    <t>What is Jersey</t>
+  </si>
+  <si>
+    <t>Jersey is an implementation of JAX-RS specification and java's implementation of REST</t>
+  </si>
+  <si>
+    <t>Rest services can return</t>
+  </si>
+  <si>
+    <t>xml, json, html, plain text, binary/octet</t>
+  </si>
+  <si>
+    <t>binary/octet</t>
+  </si>
+  <si>
+    <t>some thing like pdfs, jpeg, png content like that</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Produces(MediaType.APPLICATION_JSON)</t>
+  </si>
+  <si>
+    <t>To produce JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Produces(MediaType.APPLICATION_XML)</t>
+  </si>
+  <si>
+    <t>To produce XML</t>
+  </si>
+  <si>
+    <t>To produce Binary like pdf, image etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Produces(MediaType.APPLICATION_OCTET_STREAM)</t>
+  </si>
+  <si>
+    <t>If we are getting MessageBodyWriter not found exception while return xml response</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@javax.xml.bind.annotation.XmlRootElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation to pojo at class level</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1875,7 +1940,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2590,8 +2655,8 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3196,16 +3261,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" customWidth="1"/>
+    <col min="1" max="1" width="67.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3238,11 +3303,67 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="75">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3255,6 +3376,7 @@
     <hyperlink ref="A1" location="Topics!B4" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3294,9 +3416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="278">
   <si>
     <t>Topic</t>
   </si>
@@ -1370,6 +1370,18 @@
       </rPr>
       <t xml:space="preserve"> annotation to pojo at class level</t>
     </r>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Bad Request (Missing Information</t>
+  </si>
+  <si>
+    <t>400 response code</t>
+  </si>
+  <si>
+    <t>200  response code</t>
   </si>
 </sst>
 </file>
@@ -3261,11 +3273,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3364,6 +3376,22 @@
       </c>
       <c r="B14" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="REST+Jersey" sheetId="6" r:id="rId6"/>
     <sheet name="wsimport" sheetId="8" r:id="rId7"/>
     <sheet name="SpringREST" sheetId="9" r:id="rId8"/>
+    <sheet name="curl" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="280">
   <si>
     <t>Topic</t>
   </si>
@@ -1382,6 +1383,69 @@
   </si>
   <si>
     <t>200  response code</t>
+  </si>
+  <si>
+    <t>Download and install curl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://curl.haxx.se/download.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Go to end -&gt; Windows Generic -&gt; Download </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Win64 x86_64 CAB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Go to location where Win64 x86_64 CAB downloaded -&gt; open it -&gt; you will see -&gt; right click on 1st CURL.exe -&gt; Extract to any location
+4. Add extracted location to path environment variable
+5. Open cmd -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curl --help</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1952,7 +2016,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2032,7 +2096,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2061,6 +2125,7 @@
     <hyperlink ref="B1" location="Materials!A1" display="Materials"/>
     <hyperlink ref="A4" location="wsimport!A1" display="wsimport"/>
     <hyperlink ref="B5" location="SpringREST!A1" display="Spring REST"/>
+    <hyperlink ref="B12" location="curl!A1" display="cURL"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3275,7 +3340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
@@ -3446,7 +3511,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3495,4 +3560,54 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="75" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:2" ht="90">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="curl!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!B12" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2016,7 +2016,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2283,9 +2283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3286,7 +3286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3566,7 +3566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="283">
   <si>
     <t>Topic</t>
   </si>
@@ -1446,6 +1446,15 @@
       </rPr>
       <t>curl --help</t>
     </r>
+  </si>
+  <si>
+    <t>Pluralsight: Five Essential Tools for Building REST API</t>
+  </si>
+  <si>
+    <t>Apiary</t>
+  </si>
+  <si>
+    <t>Apiary is a web based tool which lets us capture the blueprint of an API and share with the teams. It gives simple interface for editing blueprints and provides rich documentation view for an API, which makes it very easy to understand the API</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -2729,17 +2738,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="2" width="122.42578125" customWidth="1"/>
+    <col min="2" max="2" width="122.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3260,8 +3269,23 @@
         <v>232</v>
       </c>
     </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A2:B2"/>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="288">
   <si>
     <t>Topic</t>
   </si>
@@ -1455,6 +1455,21 @@
   </si>
   <si>
     <t>Apiary is a web based tool which lets us capture the blueprint of an API and share with the teams. It gives simple interface for editing blueprints and provides rich documentation view for an API, which makes it very easy to understand the API</t>
+  </si>
+  <si>
+    <t>RAML</t>
+  </si>
+  <si>
+    <t>Similar and alternative tool to Apiary. It is a design first tool which uses mock up to describe an API and give us friendly documentation and stub API for testing (which is a sample but not the our original REST API)</t>
+  </si>
+  <si>
+    <t>The language definition for RAML is much more extensive and more formal than Apiary blueprints. We can capture example responses and define the schema of response using xml or json</t>
+  </si>
+  <si>
+    <t>https://apiary.io/</t>
+  </si>
+  <si>
+    <t>apiary site - check credentials in Remembral in Personal laptop</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1671,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1726,6 +1741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2738,11 +2754,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3283,8 +3299,31 @@
         <v>282</v>
       </c>
     </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>287</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30">
+      <c r="A76" s="25"/>
+      <c r="B76" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A65:A68"/>
@@ -3298,9 +3337,10 @@
     <hyperlink ref="B1" location="REST!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B3" display="Topics"/>
     <hyperlink ref="B70" r:id="rId1"/>
+    <hyperlink ref="B74" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="wsimport" sheetId="8" r:id="rId7"/>
     <sheet name="SpringREST" sheetId="9" r:id="rId8"/>
     <sheet name="curl" sheetId="10" r:id="rId9"/>
+    <sheet name="RA" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="294">
   <si>
     <t>Topic</t>
   </si>
@@ -1470,6 +1471,24 @@
   </si>
   <si>
     <t>apiary site - check credentials in Remembral in Personal laptop</t>
+  </si>
+  <si>
+    <t>REST Assured</t>
+  </si>
+  <si>
+    <t>Material Links</t>
+  </si>
+  <si>
+    <t>Getting Started Github</t>
+  </si>
+  <si>
+    <t>https://github.com/rest-assured/rest-assured/wiki/GettingStarted</t>
+  </si>
+  <si>
+    <t>RestAssured Github</t>
+  </si>
+  <si>
+    <t>https://github.com/rest-assured/rest-assured</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1690,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1723,12 +1742,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1741,7 +1762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2037,11 +2057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2140,6 +2160,11 @@
         <v>240</v>
       </c>
     </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="REST!A1" display="REST Definitions"/>
@@ -2151,9 +2176,82 @@
     <hyperlink ref="A4" location="wsimport!A1" display="wsimport"/>
     <hyperlink ref="B5" location="SpringREST!A1" display="Spring REST"/>
     <hyperlink ref="B12" location="curl!A1" display="cURL"/>
+    <hyperlink ref="B18" location="RA!A1" display="REST Assured"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="65.42578125" customWidth="1"/>
+    <col min="2" max="2" width="120.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="21"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="RA!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!B18" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2181,10 +2279,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2203,10 +2301,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
@@ -2217,10 +2315,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -2239,10 +2337,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
@@ -2253,10 +2351,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="21"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -2267,10 +2365,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="21"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
@@ -2328,10 +2426,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3"/>
@@ -2354,10 +2452,10 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
@@ -2756,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A75" sqref="A75:A76"/>
     </sheetView>
@@ -2776,16 +2874,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
@@ -2916,7 +3014,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>179</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2924,7 +3022,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="1" t="s">
         <v>177</v>
       </c>
@@ -3122,7 +3220,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3130,7 +3228,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="24"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="3" t="s">
         <v>128</v>
       </c>
@@ -3224,10 +3322,10 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:2" ht="105">
       <c r="A63" s="3" t="s">
@@ -3246,7 +3344,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="24" t="s">
         <v>221</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -3254,28 +3352,28 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="22"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="22"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="165">
-      <c r="A68" s="22"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="23"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
@@ -3286,10 +3384,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="21"/>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" t="s">
@@ -3308,7 +3406,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="22" t="s">
         <v>283</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3316,7 +3414,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
-      <c r="A76" s="25"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="3" t="s">
         <v>285</v>
       </c>
@@ -3368,16 +3466,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -3424,16 +3522,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" s="3" t="s">
@@ -3575,7 +3673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3593,10 +3691,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3607,10 +3705,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3650,10 +3748,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" ht="90">
       <c r="A3" t="s">

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="SpringREST" sheetId="9" r:id="rId8"/>
     <sheet name="curl" sheetId="10" r:id="rId9"/>
     <sheet name="RA" sheetId="11" r:id="rId10"/>
+    <sheet name="RestClients" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="298">
   <si>
     <t>Topic</t>
   </si>
@@ -1288,9 +1289,6 @@
     <t>Projetcs</t>
   </si>
   <si>
-    <t>Rest Clients</t>
-  </si>
-  <si>
     <t>Pluralsigh link</t>
   </si>
   <si>
@@ -1489,6 +1487,21 @@
   </si>
   <si>
     <t>https://github.com/rest-assured/rest-assured</t>
+  </si>
+  <si>
+    <t>RestClients</t>
+  </si>
+  <si>
+    <t>Workspaces</t>
+  </si>
+  <si>
+    <t>STS workspace</t>
+  </si>
+  <si>
+    <t>E:\workspaces\spring-boot-ws</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\RestWebServicesProjects\RestClientsPractice</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1742,6 +1755,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2057,11 +2071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2155,14 +2169,19 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2177,6 +2196,7 @@
     <hyperlink ref="B5" location="SpringREST!A1" display="Spring REST"/>
     <hyperlink ref="B12" location="curl!A1" display="cURL"/>
     <hyperlink ref="B18" location="RA!A1" display="REST Assured"/>
+    <hyperlink ref="A20" location="RestClients!A1" display="RestClients"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2187,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2206,38 +2226,38 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="21"/>
+      <c r="A2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2252,16 +2272,103 @@
     <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="68.7109375" customWidth="1"/>
+    <col min="2" max="2" width="116.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="22"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="22"/>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="RestClients!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2279,126 +2386,102 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="21"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>230</v>
-      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="21"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" t="s">
-        <v>255</v>
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="21"/>
+      <c r="A13" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="22"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>97</v>
+        <v>247</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" s="21"/>
+      <c r="A17" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="21"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>257</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B11" r:id="rId4"/>
-    <hyperlink ref="B14" r:id="rId5"/>
-    <hyperlink ref="B18" r:id="rId6"/>
-    <hyperlink ref="B22" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="B18" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2426,10 +2509,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3"/>
@@ -2452,10 +2535,10 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
@@ -2874,16 +2957,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="22"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
@@ -3014,7 +3097,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>179</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3022,7 +3105,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="1" t="s">
         <v>177</v>
       </c>
@@ -3220,7 +3303,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3228,7 +3311,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="26"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="3" t="s">
         <v>128</v>
       </c>
@@ -3322,10 +3405,10 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:2" ht="105">
       <c r="A63" s="3" t="s">
@@ -3344,7 +3427,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="25" t="s">
         <v>221</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -3352,28 +3435,28 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="24"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="24"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="165">
-      <c r="A68" s="24"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="23"/>
+      <c r="B69" s="24"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
@@ -3384,39 +3467,39 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B72" s="21"/>
+      <c r="A72" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72" s="22"/>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B75" s="3" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="30">
+      <c r="A76" s="23"/>
+      <c r="B76" s="3" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="30">
-      <c r="A76" s="22"/>
-      <c r="B76" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3466,16 +3549,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -3522,16 +3605,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" s="3" t="s">
@@ -3551,74 +3634,74 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
         <v>260</v>
-      </c>
-      <c r="B8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
         <v>262</v>
-      </c>
-      <c r="B9" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" t="s">
         <v>264</v>
-      </c>
-      <c r="B10" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" t="s">
         <v>270</v>
-      </c>
-      <c r="B13" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
         <v>272</v>
-      </c>
-      <c r="B14" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +3756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3691,24 +3774,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3748,17 +3831,17 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2" ht="90">
       <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/9_Definitions_Web_Services.xlsx
+++ b/Definitions/9_Definitions_Web_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="301">
   <si>
     <t>Topic</t>
   </si>
@@ -1502,6 +1502,15 @@
   </si>
   <si>
     <t>E:\Backup\JavaPrep\practiceProjects\RestWebServicesProjects\RestClientsPractice</t>
+  </si>
+  <si>
+    <t>Spring MVC + Rest</t>
+  </si>
+  <si>
+    <t>Cerebro -&gt; Spring -&gt; Spring MVC -&gt; Spring MVC + Spring Rest</t>
+  </si>
+  <si>
+    <t>E:\workspaces\spring-rest-ws</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1712,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1757,6 +1766,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1775,6 +1785,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2226,10 +2242,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
@@ -2248,16 +2264,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2280,7 +2296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -2300,10 +2316,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2322,10 +2338,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="20" t="s">
@@ -2336,10 +2352,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="3" t="s">
@@ -2386,10 +2402,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2400,10 +2416,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -2422,10 +2438,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -2436,10 +2452,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
@@ -2450,10 +2466,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -2509,10 +2525,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3"/>
@@ -2535,10 +2551,10 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
@@ -2957,16 +2973,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
@@ -3097,7 +3113,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>179</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3105,7 +3121,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="26"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="1" t="s">
         <v>177</v>
       </c>
@@ -3303,7 +3319,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="28" t="s">
         <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3311,7 +3327,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="27"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="3" t="s">
         <v>128</v>
       </c>
@@ -3405,10 +3421,10 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="28"/>
     </row>
     <row r="63" spans="1:2" ht="105">
       <c r="A63" s="3" t="s">
@@ -3427,7 +3443,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="26" t="s">
         <v>221</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -3435,28 +3451,28 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="25"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="25"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="165">
-      <c r="A68" s="25"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="25"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
@@ -3467,10 +3483,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="B72" s="22"/>
+      <c r="B72" s="23"/>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" t="s">
@@ -3489,7 +3505,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="24" t="s">
         <v>282</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3497,7 +3513,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
-      <c r="A76" s="23"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="3" t="s">
         <v>284</v>
       </c>
@@ -3549,16 +3565,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -3605,16 +3621,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" s="3" t="s">
@@ -3752,11 +3768,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3774,10 +3790,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3787,16 +3803,50 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="4" spans="1:2" s="21" customFormat="1">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" s="21" customFormat="1">
+      <c r="A5" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:2" s="21" customFormat="1">
       <c r="A6" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="21" customFormat="1">
+      <c r="A8" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:2" s="21" customFormat="1">
+      <c r="A9" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="21" customFormat="1"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B12" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!B5" display="Topics"/>
@@ -3831,10 +3881,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" ht="90">
       <c r="A3" t="s">
